--- a/public/preprocessing/@dhikacungkring.xlsx
+++ b/public/preprocessing/@dhikacungkring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18840</v>
+        <v>32964</v>
       </c>
       <c r="C2" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['rt', 'dear', 'jurnalis', 'idealnya', 'sih', 'kalau', 'mau', 'bikin', 'berita', 'dan', 'mengutip', 'kalimat', 'orang', 'berdasarkan', 'komentarnya', 'di', 'media, sosial', 'meminta', 'izin']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['dear', 'jurnalis', 'idealnya', 'berita', 'ngutip', 'kalimat', 'orang', 'berdasarkan', 'komentarnya', 'medsos', 'ijin']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['dear', 'jurnalis', 'ideal', 'berita', 'ngutip', 'kalimat', 'orang', 'dasar', 'komentar', 'medsos', 'ijin']</t>
+          <t>['dear', 'jurnalis', 'idealnya', 'berita', 'mengutip', 'kalimat', 'orang', 'berdasarkan', 'komentarnya', 'media, sosial', 'izin']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['dear', 'jurnalis', 'ideal', 'berita', 'kutip', 'kalimat', 'orang', 'dasar', 'komentar', 'media sosial', 'izin']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18841</v>
+        <v>32965</v>
       </c>
       <c r="C3" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['itu', 'ibarat', 'mata', 'kuliah', 'yang', 'susah', 'bangettapi', 'akhirnya', 'terlewati', 'kita', 'evaluasi', 'nilai', 'kita', 'masing', 'mari', 'bersia']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['mata', 'kuliah', 'susah', 'bangettapi', 'terlewati', 'evaluasi', 'nilai', 'mari', 'bersia']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['mata', 'kuliah', 'susah', 'bangettapi', 'lewat', 'evaluasi', 'nilai', 'mari', 'sia']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18842</v>
+        <v>32966</v>
       </c>
       <c r="C4" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['rt', 'menangis', 'aku', 'lihat', 'iklan', 'ini', 'too', 'gooooooood', 'mcdonalds']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['nangis', 'liat', 'ads', 'too', 'gooooooood', 'mcdonalds']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['nang', 'liat', 'ads', 'too', 'gooooooood', 'mcdonalds']</t>
+          <t>['menangis', 'lihat', 'iklan', 'too', 'gooooooood', 'mcdonalds']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['menang', 'lihat', 'iklan', 'too', 'gooooooood', 'mcdonalds']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18843</v>
+        <v>32967</v>
       </c>
       <c r="C5" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['youtube', 'down', 'mending', 'curhat', 'ke', 'deh']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['youtube', 'down', 'mending', 'curhat', 'deh']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['youtube', 'down', 'mending', 'curhat', 'deh']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18844</v>
+        <v>32968</v>
       </c>
       <c r="C6" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,15 +661,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['ipy', 'saps', 'itu']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['ipy', 'saps']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['ipy', 'saps']</t>
         </is>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18845</v>
+        <v>32969</v>
       </c>
       <c r="C7" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['bonita']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['bonita']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['bonita']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18846</v>
+        <v>32970</v>
       </c>
       <c r="C8" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -704,15 +739,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -723,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18847</v>
+        <v>32971</v>
       </c>
       <c r="C9" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -740,15 +780,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['rt', 'parlemen', 'jepang', 'telah', 'mengeluarkan', 'undangundang', 'untuk', 'memberikan', 'vaksin', 'covid', 'seluruh', 'warga', 'negara', 'dengan', 'biaya', 'yang', 'di']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['parlemen', 'jepang', 'mengeluarkan', 'undangundang', 'vaksin', 'covid', 'warga', 'negara', 'biaya']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['parlemen', 'jepang', 'keluar', 'undangundang', 'vaksin', 'covid', 'warga', 'negara', 'biaya']</t>
         </is>
@@ -759,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18848</v>
+        <v>32972</v>
       </c>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -776,17 +821,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['fan', 'mu', 'sabar', 'iya', 'mari', 'ngelus', 'dada', 'bareng', 'ku', 'menangiiiiiiiiiiissssssss', 'membayangkan']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['fans', 'mu', 'sabar', 'yo', 'mari', 'ngelus', 'dada', 'bareng', 'ku', 'menangiiiiiiiiiiissssssss', 'membayangkan']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['fans', 'mu', 'sabar', 'yo', 'mari', 'ngelus', 'dada', 'bareng', 'ku', 'menangiiiiiiiiiiissssssss', 'bayang']</t>
+          <t>['fan', 'mu', 'sabar', 'iya', 'mari', 'ngelus', 'dada', 'bareng', 'ku', 'menangiiiiiiiiiiissssssss', 'membayangkan']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['fan', 'mu', 'sabar', 'iya', 'mari', 'ngelus', 'dada', 'bareng', 'ku', 'menangiiiiiiiiiiissssssss', 'bayang']</t>
         </is>
       </c>
     </row>
@@ -795,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18849</v>
+        <v>32973</v>
       </c>
       <c r="C11" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -812,15 +862,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['ggmu', 'cavani']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['ggmu', 'cavani']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['ggmu', 'cavani']</t>
         </is>
@@ -831,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18850</v>
+        <v>32974</v>
       </c>
       <c r="C12" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -848,15 +903,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'jafar', 'kalau', 'mujahidin', 'indonesia', 'timur', 'mit', 'itu', 'paham', 'islam', 'mereka', 'akan', 'tahu', 'kalau', 'jobdesk', 'mereka', 'adalah', 'jihad', 'di', 'indonesia', 'tim']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['jafar', 'mujahidin', 'indonesia', 'timur', 'mit', 'paham', 'islam', 'jobdesk', 'jihad', 'indonesia', 'tim']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['jafar', 'mujahidin', 'indonesia', 'timur', 'mit', 'paham', 'islam', 'jobdesk', 'jihad', 'indonesia', 'tim']</t>
         </is>
@@ -867,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18851</v>
+        <v>32975</v>
       </c>
       <c r="C13" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -884,15 +944,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['pray', 'for', 'sigi']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['pray', 'for', 'sigi']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['pray', 'for', 'sigi']</t>
         </is>
@@ -903,10 +968,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18852</v>
+        <v>32976</v>
       </c>
       <c r="C14" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -920,15 +985,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'di', 'saatsaat', 'terberat', 'peluklah', 'erat', 'orang', 'tersayang', 'lekatkan', 'telingamu', 'ke', 'dadanya', 'dengar', 'degupan', 'yang', 'menyala', 'itu']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['saatsaat', 'terberat', 'peluklah', 'erat', 'orang', 'tersayang', 'lekatkan', 'telingamu', 'dadanya', 'dengar', 'degupan', 'menyala']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['saatsaat', 'berat', 'peluk', 'erat', 'orang', 'sayang', 'lekat', 'telinga', 'dada', 'dengar', 'degup', 'nyala']</t>
         </is>
@@ -939,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18853</v>
+        <v>32977</v>
       </c>
       <c r="C15" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -956,15 +1026,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'berpikir', 'itu', 'sulit', 'makanya', 'sebagian', 'besar', 'orang', 'lebih', 'memilih', 'untuk', 'ngejudge', 'demikian', 'katanya', 'carl', 'jung']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['berpikir', 'sulit', 'orang', 'memilih', 'ngejudge', 'carl', 'jung']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['pikir', 'sulit', 'orang', 'pilih', 'ngejudge', 'carl', 'jung']</t>
         </is>
@@ -975,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18854</v>
+        <v>32978</v>
       </c>
       <c r="C16" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -992,17 +1067,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['tai']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['taek']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['taek']</t>
+          <t>['tai']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['tai']</t>
         </is>
       </c>
     </row>
@@ -1011,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18855</v>
+        <v>32979</v>
       </c>
       <c r="C17" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1028,17 +1108,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['komentar', 'warganet', 'lebih', 'baik', 'begini', 'lebih', 'baik', 'begitu', 'alangkah', 'bijaknya', 'cuma', 'mengingatkan', 'kalau', 'gue', 'jadi', 'kamu', 'gue']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['komentar', 'netizen', 'gini', 'gitu', 'alangkah', 'bijaknya', 'cuman', 'gw', 'lo', 'gw']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['komentar', 'netizen', 'gin', 'gitu', 'alangkah', 'bijak', 'cuman', 'gw', 'lo', 'gw']</t>
+          <t>['komentar', 'warganet', 'alangkah', 'bijaknya', 'gue', 'gue']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['komentar', 'warganet', 'alangkah', 'bijak', 'gue', 'gue']</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18856</v>
+        <v>32980</v>
       </c>
       <c r="C18" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1064,17 +1149,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['kenapa', 'kebahagiaan', 'orang', 'selalu', 'diusik', 'bahkan', 'drusak', 'begitu', 'gampang', 'di', 'era', 'media, sosial', 'standard', 'bahagia', 'orang', 'beda']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['kebahagiaan', 'org', 'diusik', 'drusak', 'gampang', 'era', 'sosmed', 'standard', 'bahagia', 'org', 'beda']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['bahagia', 'org', 'usik', 'drusak', 'gampang', 'era', 'sosmed', 'standard', 'bahagia', 'org', 'beda']</t>
+          <t>['kebahagiaan', 'orang', 'diusik', 'drusak', 'gampang', 'era', 'media, sosial', 'standard', 'bahagia', 'orang', 'beda']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['bahagia', 'orang', 'usik', 'drusak', 'gampang', 'era', 'media sosial', 'standard', 'bahagia', 'orang', 'beda']</t>
         </is>
       </c>
     </row>
@@ -1083,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18857</v>
+        <v>32981</v>
       </c>
       <c r="C19" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1100,17 +1190,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'sudah', 'siap', 'menjadi', 'host', 'untuk', 'mencari', 'talenta', 'muda', 'penerus', 'didi', 'kempot', 'the', 'next', 'didi', 'kempot', 'mulai', 'deh']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['host', 'mencari', 'talenta', 'muda', 'penerus', 'didi', 'kempot', 'the', 'next', 'didi', 'kempot', 'de']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['host', 'cari', 'talenta', 'muda', 'terus', 'didi', 'kempot', 'the', 'next', 'didi', 'kempot', 'de']</t>
+          <t>['host', 'mencari', 'talenta', 'muda', 'penerus', 'didi', 'kempot', 'the', 'next', 'didi', 'kempot', 'deh']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['host', 'cari', 'talenta', 'muda', 'terus', 'didi', 'kempot', 'the', 'next', 'didi', 'kempot', 'deh']</t>
         </is>
       </c>
     </row>
@@ -1119,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18858</v>
+        <v>32982</v>
       </c>
       <c r="C20" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1136,17 +1231,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['korupsi', 'kok', 'musibah', 'korupsi', 'ikut', 'kelakuan', 'dul']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['korupsi', 'musibah', 'korupsi', 'iku', 'kelakuan', 'dul']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['korupsi', 'musibah', 'korupsi', 'iku', 'laku', 'dul']</t>
+          <t>['korupsi', 'musibah', 'korupsi', 'kelakuan', 'dul']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['korupsi', 'musibah', 'korupsi', 'laku', 'dul']</t>
         </is>
       </c>
     </row>
@@ -1155,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18859</v>
+        <v>32983</v>
       </c>
       <c r="C21" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1172,15 +1272,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'kriting', 'mohon', 'maaf', 'mohon', 'diluruskan', 'sedikit', 'pak', 'yang', 'tertimpa', 'musibah', 'bukan', 'beliau', 'tapi', 'yang', 'tertimpa', 'musibah', 'saat', 'ini', 'adalah']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['kriting', 'mohon', 'maaf', 'mohon', 'diluruskan', 'tertimpa', 'musibah', 'beliau', 'tertimpa', 'musibah']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['kriting', 'mohon', 'maaf', 'mohon', 'lurus', 'timpa', 'musibah', 'beliau', 'timpa', 'musibah']</t>
         </is>
@@ -1191,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18860</v>
+        <v>32984</v>
       </c>
       <c r="C22" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1208,15 +1313,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'soccerboy', 'psbb', 'pakar', 'segala', 'bubur', 'bubur']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['soccerboy', 'psbb', 'pakar', 'bubur', 'bubur']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['soccerboy', 'psbb', 'pakar', 'bubur', 'bubur']</t>
         </is>
@@ -1227,10 +1337,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>18861</v>
+        <v>32985</v>
       </c>
       <c r="C23" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1244,17 +1354,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['enggak', 'diaduk', 'tetap', 'jalan', 'hidupku']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['nggak', 'diaduk', 'jalan', 'hidupku']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['nggak', 'aduk', 'jalan', 'hidup']</t>
+          <t>['diaduk', 'jalan', 'hidupku']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['aduk', 'jalan', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -1263,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18862</v>
+        <v>32986</v>
       </c>
       <c r="C24" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1280,15 +1395,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['rest', 'in', 'peace', 'maradona']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['rest', 'in', 'peace', 'maradona']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['rest', 'in', 'peace', 'maradona']</t>
         </is>
@@ -1299,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18863</v>
+        <v>32987</v>
       </c>
       <c r="C25" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1316,15 +1436,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['tidak', 'diaduk']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['diaduk']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['aduk']</t>
         </is>
@@ -1335,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18864</v>
+        <v>32988</v>
       </c>
       <c r="C26" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1352,17 +1477,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['wkwkwkkw']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['wkwkwkkw']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -1371,10 +1501,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18865</v>
+        <v>32989</v>
       </c>
       <c r="C27" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1388,17 +1518,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['sendal', 'gue', 'rindi']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['sendal', 'gw', 'rindi']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['sendal', 'gw', 'rindi']</t>
+          <t>['sendal', 'gue', 'rindi']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['sendal', 'gue', 'rindi']</t>
         </is>
       </c>
     </row>
@@ -1407,10 +1542,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18866</v>
+        <v>32990</v>
       </c>
       <c r="C28" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1424,17 +1559,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['perusahaan, listrik, negara', 'oh', 'perusahaan, listrik, negara', 'mati', 'lampu', 'kok', 'hampir', 'tiap', 'hari', 'apa', 'terserah, kamu']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['pln', 'oh', 'pln', 'mati', 'lampu', 'opo', 'karepmu']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['pln', 'oh', 'pln', 'mati', 'lampu', 'opo', 'karepmu']</t>
+          <t>['perusahaan, listrik, negara', 'oh', 'perusahaan, listrik, negara', 'mati', 'lampu', 'terserah, kamu']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['usaha listrik negara', 'oh', 'usaha listrik negara', 'mati', 'lampu', 'serah kamu']</t>
         </is>
       </c>
     </row>
@@ -1443,10 +1583,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18867</v>
+        <v>32991</v>
       </c>
       <c r="C29" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1460,15 +1600,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['manchester', 'united']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['manchester', 'united']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['manchester', 'united']</t>
         </is>
@@ -1479,10 +1624,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18868</v>
+        <v>32992</v>
       </c>
       <c r="C30" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1496,17 +1641,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['rt', 'yakin', 'ini', 'pembicaraan', 'berbobot', 'mengisnpirasi', 'sukses', 'terus', 'mas', 'alit', 'mas', 'dika']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['iki', 'pembicaraan', 'berbobot', 'mengisnpirasi', 'sukses', 'mas', 'alit', 'mas', 'dika']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['iki', 'bicara', 'bobot', 'mengisnpirasi', 'sukses', 'mas', 'alit', 'mas', 'dika']</t>
+          <t>['pembicaraan', 'berbobot', 'mengisnpirasi', 'sukses', 'mas', 'alit', 'mas', 'dika']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['bicara', 'bobot', 'mengisnpirasi', 'sukses', 'mas', 'alit', 'mas', 'dika']</t>
         </is>
       </c>
     </row>
@@ -1515,10 +1665,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18869</v>
+        <v>32993</v>
       </c>
       <c r="C31" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1532,15 +1682,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['itu', 'kesendok', 'bang', 'bukan', 'keaduk']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['kesendok', 'bang', 'keaduk']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['sendok', 'bang', 'aduk']</t>
         </is>
@@ -1551,10 +1706,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18870</v>
+        <v>32994</v>
       </c>
       <c r="C32" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1568,17 +1723,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['hem', 'mulai']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['hmm']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hmm']</t>
+          <t>['hem']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['hem']</t>
         </is>
       </c>
     </row>
@@ -1587,10 +1747,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18871</v>
+        <v>32995</v>
       </c>
       <c r="C33" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1604,15 +1764,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['ggmu']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['ggmu']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['ggmu']</t>
         </is>
@@ -1623,10 +1788,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18872</v>
+        <v>32996</v>
       </c>
       <c r="C34" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1640,17 +1805,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['terima, kasih']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['thx']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['thx']</t>
+          <t>['terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['terima kasih']</t>
         </is>
       </c>
     </row>
@@ -1659,10 +1829,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18873</v>
+        <v>32997</v>
       </c>
       <c r="C35" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1676,15 +1846,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['suwun']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['suwun']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['suwun']</t>
         </is>
@@ -1695,10 +1870,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18874</v>
+        <v>32998</v>
       </c>
       <c r="C36" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1708,15 +1883,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1727,10 +1907,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18875</v>
+        <v>32999</v>
       </c>
       <c r="C37" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1744,17 +1924,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kerupuk', 'meminta', 'semangkuk', 'dipisah', 'sesekali', 'nyendok', 'bubur', 'pakai', 'kerupuk']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['krupuk', 'semangkuk', 'dipisah', 'nyendok', 'bubur', 'pake', 'kerupuk']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['krupuk', 'semangkuk', 'pisah', 'nyendok', 'bubur', 'pake', 'kerupuk']</t>
+          <t>['kerupuk', 'semangkuk', 'dipisah', 'nyendok', 'bubur', 'pakai', 'kerupuk']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['kerupuk', 'semangkuk', 'pisah', 'nyendok', 'bubur', 'pakai', 'kerupuk']</t>
         </is>
       </c>
     </row>
@@ -1763,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18876</v>
+        <v>33000</v>
       </c>
       <c r="C38" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1780,17 +1965,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['bubur', 'tidak', 'diaduk', 'teh', 'manis', 'hangat']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['bubur', 'diaduk', 'teh', 'manis', 'anget']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['bubur', 'aduk', 'teh', 'manis', 'anget']</t>
+          <t>['bubur', 'diaduk', 'teh', 'manis', 'hangat']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['bubur', 'aduk', 'teh', 'manis', 'hangat']</t>
         </is>
       </c>
     </row>
@@ -1799,10 +1989,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18877</v>
+        <v>33001</v>
       </c>
       <c r="C39" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1816,17 +2006,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['no', 'bubur', 'diaduk', 'itu', 'ibarat', 'pacaran', 'sampai', 'kawin', 'rasanya', 'flat', 'tidak', 'warna', 'warni', 'perjalanannya', 'kerupuk', 'ikut', 'diaduk', 'itu']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['no', 'bubur', 'diaduk', 'pacaran', 'sampe', 'kawin', 'flat', 'warna', 'warni', 'perjalanannya', 'krupuk', 'diaduk']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['no', 'bubur', 'aduk', 'pacar', 'sampe', 'kawin', 'flat', 'warna', 'warni', 'jalan', 'krupuk', 'aduk']</t>
+          <t>['no', 'bubur', 'diaduk', 'pacaran', 'kawin', 'flat', 'warna', 'warni', 'perjalanannya', 'kerupuk', 'diaduk']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['no', 'bubur', 'aduk', 'pacar', 'kawin', 'flat', 'warna', 'warni', 'jalan', 'kerupuk', 'aduk']</t>
         </is>
       </c>
     </row>
@@ -1835,10 +2030,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18878</v>
+        <v>33002</v>
       </c>
       <c r="C40" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1852,17 +2047,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['itu', 'lihat', 'kekurangan', 'yang', 'diaduk', 'mereka', 'memang', 'sulit', 'berpikir', 'buat', 'orang', 'lain']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['liat', 'kekurangan', 'diaduk', 'sulit', 'berfikir', 'orang']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['liat', 'kurang', 'aduk', 'sulit', 'berfikir', 'orang']</t>
+          <t>['lihat', 'kekurangan', 'diaduk', 'sulit', 'berpikir', 'orang']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['lihat', 'kurang', 'aduk', 'sulit', 'pikir', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1871,10 +2071,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18879</v>
+        <v>33003</v>
       </c>
       <c r="C41" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1888,17 +2088,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'sampai', 'detik', 'ini', 'saya', 'tidak', 'pah', 'dengan', 'hal', 'soal', 'makanan', 'salah', 'satunya', 'kenapa', 'orang', 'suka', 'makan', 'bubur', 'diaduk', 'bahkan', 'sampai']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['detik', 'pah', 'makanan', 'salah', 'satunya', 'orang', 'suka', 'makan', 'bubur', 'diaduk', 'sampe']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['detik', 'pah', 'makan', 'salah', 'satu', 'orang', 'suka', 'makan', 'bubur', 'aduk', 'sampe']</t>
+          <t>['detik', 'pah', 'makanan', 'salah', 'satunya', 'orang', 'suka', 'makan', 'bubur', 'diaduk']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['detik', 'pah', 'makan', 'salah', 'satu', 'orang', 'suka', 'makan', 'bubur', 'aduk']</t>
         </is>
       </c>
     </row>
@@ -1907,10 +2112,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18880</v>
+        <v>33004</v>
       </c>
       <c r="C42" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1924,15 +2129,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['bubur', 'diaduk', 'hanya', 'buat', 'orang', 'yang', 'tidak', 'bisa', 'menikmati', 'keindahanhahahahahahahahahahahahahahahahahahahahahahaha']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['bubur', 'diaduk', 'orang', 'menikmati', 'keindahanhahahahahahahahahahahahahahahahahahahahahahaha']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['bubur', 'aduk', 'orang', 'nikmat', 'keindahanhahahahahahahahahahahahahahahahahahahahahahaha']</t>
         </is>
@@ -1943,10 +2153,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18881</v>
+        <v>33005</v>
       </c>
       <c r="C43" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1960,15 +2170,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['nah', 'kan', 'kang', 'bubur', 'nongol']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['kang', 'bubur', 'nongol']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['kang', 'bubur', 'nongol']</t>
         </is>
@@ -1979,10 +2194,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18882</v>
+        <v>33006</v>
       </c>
       <c r="C44" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1996,17 +2211,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['diaduk', 'itu', 'hanya', 'akan', 'mempercepat', 'waktu', 'makan', 'dari', 'mulut', 'ke', 'perut', 'ini', 'semua', 'juga', 'tentang', 'menikmati', 'proses', 'dari', 'se']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['diaduk', 'mempercepat', 'makan', 'mulut', 'perut', 'jg', 'menikmati', 'proses']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['aduk', 'cepat', 'makan', 'mulut', 'perut', 'jg', 'nikmat', 'proses']</t>
+          <t>['diaduk', 'mempercepat', 'makan', 'mulut', 'perut', 'menikmati', 'proses']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['aduk', 'cepat', 'makan', 'mulut', 'perut', 'nikmat', 'proses']</t>
         </is>
       </c>
     </row>
@@ -2015,10 +2235,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18883</v>
+        <v>33007</v>
       </c>
       <c r="C45" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2032,17 +2252,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['no', 'lidah', 'itu', 'dibuat', 'buat', 'bisa', 'nikmati', 'segala', 'rasa', 'dimana', 'serunya', 'kalau', 'diaduk', 'dan', 'cuma', 'rasa', 'bubur']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['no', 'lidah', 'dibikin', 'nikmati', 'dimana', 'serunya', 'diaduk', 'cuman', 'bubur']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['no', 'lidah', 'bikin', 'nikmat', 'mana', 'seru', 'aduk', 'cuman', 'bubur']</t>
+          <t>['no', 'lidah', 'nikmati', 'dimana', 'serunya', 'diaduk', 'bubur']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['no', 'lidah', 'nikmat', 'mana', 'seru', 'aduk', 'bubur']</t>
         </is>
       </c>
     </row>
@@ -2051,10 +2276,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18884</v>
+        <v>33008</v>
       </c>
       <c r="C46" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2068,17 +2293,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['no', 'bubur', 'tidak', 'diaduk', 'itu', 'lebih', 'nikmat', 'karena', 'setiap', 'elemen', 'punya', 'sensasi', 'rasa', 'yang', 'beda', 'dan', 'lidah', 'kita', 'bisa', 'nikmati']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['no', 'bubur', 'diaduk', 'nikmat', 'karna', 'elemen', 'sensasi', 'beda', 'lidah', 'nikmati']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['no', 'bubur', 'aduk', 'nikmat', 'karna', 'elemen', 'sensasi', 'beda', 'lidah', 'nikmat']</t>
+          <t>['no', 'bubur', 'diaduk', 'nikmat', 'elemen', 'sensasi', 'beda', 'lidah', 'nikmati']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['no', 'bubur', 'aduk', 'nikmat', 'elemen', 'sensasi', 'beda', 'lidah', 'nikmat']</t>
         </is>
       </c>
     </row>
@@ -2087,10 +2317,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18885</v>
+        <v>33009</v>
       </c>
       <c r="C47" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2104,17 +2334,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['mu', 'lawan', 'liverpool']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['mu', 'vs', 'liverpool']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['mu', 'vs', 'liverpool']</t>
+          <t>['mu', 'lawan', 'liverpool']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['mu', 'lawan', 'liverpool']</t>
         </is>
       </c>
     </row>
@@ -2123,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18886</v>
+        <v>33010</v>
       </c>
       <c r="C48" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2140,15 +2375,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'mulai', 'menyayangi', 'diri', 'sendiri', 'karena', 'negara', 'tidak', 'pernah', 'benarbenar', 'peduli']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['menyayangi', 'negara', 'benarbenar', 'peduli']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['sayang', 'negara', 'benarbenar', 'peduli']</t>
         </is>
@@ -2159,10 +2399,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18887</v>
+        <v>33011</v>
       </c>
       <c r="C49" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2176,15 +2416,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['rt', 'manusia', 'tempatnya', 'salah', 'keangkuhan', 'bikin', 'kita', 'tidak', 'mau', 'kalah']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['manusia', 'tempatnya', 'salah', 'keangkuhan', 'kalah']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['manusia', 'tempat', 'salah', 'angkuh', 'kalah']</t>
         </is>
@@ -2195,10 +2440,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18888</v>
+        <v>33012</v>
       </c>
       <c r="C50" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -2208,15 +2453,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2227,10 +2477,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18889</v>
+        <v>33013</v>
       </c>
       <c r="C51" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2244,17 +2494,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['ipy', 'ipyyyyy', 'terima, kasih', 'banget']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['ipy', 'ipyyyyy', 'makasih', 'bangettttt']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['ipy', 'ipyyyyy', 'makasih', 'bangettttt']</t>
+          <t>['ipy', 'ipyyyyy', 'terima, kasih', 'banget']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['ipy', 'ipyyyyy', 'terima kasih', 'banget']</t>
         </is>
       </c>
     </row>
@@ -2263,10 +2518,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18890</v>
+        <v>33014</v>
       </c>
       <c r="C52" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2280,15 +2535,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['amiiiiiiiinnnn']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['amiiiiiiiinnnn']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['amiiiiiiiinnnn']</t>
         </is>
@@ -2299,10 +2559,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18891</v>
+        <v>33015</v>
       </c>
       <c r="C53" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2316,17 +2576,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'ketemu', 'kamu', 'ambe']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['ketemu', 'maneh', 'ambe']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['ketemu', 'maneh', 'ambe']</t>
+          <t>['ketemu', 'ambe']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['ketemu', 'ambe']</t>
         </is>
       </c>
     </row>
@@ -2335,10 +2600,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18892</v>
+        <v>33016</v>
       </c>
       <c r="C54" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2352,17 +2617,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['cangkruk', 'sama', 'buluk', 'superglad', 'sudah', 'tayang', 'klik']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['cangkruk', 'ama', 'buluk', 'superglad', 'udah', 'tayang', 'klik']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['cangkruk', 'ama', 'buluk', 'superglad', 'udah', 'tayang', 'klik']</t>
+          <t>['cangkruk', 'buluk', 'superglad', 'tayang', 'klik']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['cangkruk', 'buluk', 'superglad', 'tayang', 'klik']</t>
         </is>
       </c>
     </row>
@@ -2371,10 +2641,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18893</v>
+        <v>33017</v>
       </c>
       <c r="C55" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2388,15 +2658,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['buluk', 'superglad', 'diangkat', 'mimpi', 'dibanting', 'keserakahan', 'berkaca', 'yuk', 'via']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['buluk', 'superglad', 'diangkat', 'mimpi', 'dibanting', 'keserakahan', 'berkaca', 'yuk', 'via']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['buluk', 'superglad', 'angkat', 'mimpi', 'banting', 'serakah', 'kaca', 'yuk', 'via']</t>
         </is>
@@ -2407,10 +2682,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18894</v>
+        <v>33018</v>
       </c>
       <c r="C56" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -2420,15 +2695,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2439,10 +2719,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18895</v>
+        <v>33019</v>
       </c>
       <c r="C57" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2456,15 +2736,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['syipppppp']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['syipppppp']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['syipppppp']</t>
         </is>
@@ -2475,10 +2760,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18896</v>
+        <v>33020</v>
       </c>
       <c r="C58" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2492,15 +2777,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['cangkruk', 'episode', 'buluk', 'superglad', 'tayangin', 'kapan', 'ya', 'enaknya']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['cangkruk', 'episode', 'buluk', 'superglad', 'tayangin', 'enaknya']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['cangkruk', 'episode', 'buluk', 'superglad', 'tayangin', 'enak']</t>
         </is>
@@ -2511,10 +2801,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18897</v>
+        <v>33021</v>
       </c>
       <c r="C59" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2528,17 +2818,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'work', 'lawan', 'luck']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['work', 'vs', 'luck']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['work', 'vs', 'luck']</t>
+          <t>['work', 'lawan', 'luck']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['work', 'lawan', 'luck']</t>
         </is>
       </c>
     </row>
@@ -2547,10 +2842,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18898</v>
+        <v>33022</v>
       </c>
       <c r="C60" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2564,15 +2859,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['artinya', 'apa', 'sih', 'bang']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['bang']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['bang']</t>
         </is>
@@ -2583,10 +2883,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18899</v>
+        <v>33023</v>
       </c>
       <c r="C61" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2600,17 +2900,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['ketoyor', 'saya', 'bang', 'sama', 'katanya', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['ketoyor', 'bang', 'ama', 'makasih']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['toyor', 'bang', 'ama', 'makasih']</t>
+          <t>['ketoyor', 'bang', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['toyor', 'bang', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -2619,10 +2924,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18900</v>
+        <v>33024</v>
       </c>
       <c r="C62" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2636,17 +2941,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['rt', 'sinaga', 'episode', 'andhika', 'pratama', 'via']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['sinaga', 'eps', 'andhika', 'pratama', 'via']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['sinaga', 'eps', 'andhika', 'pratama', 'via']</t>
+          <t>['sinaga', 'episode', 'andhika', 'pratama', 'via']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['sinaga', 'episode', 'andhika', 'pratama', 'via']</t>
         </is>
       </c>
     </row>
@@ -2655,10 +2965,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18901</v>
+        <v>33025</v>
       </c>
       <c r="C63" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2672,15 +2982,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['cuk']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['cuk']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>['cuk']</t>
         </is>
@@ -2691,10 +3006,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18902</v>
+        <v>33026</v>
       </c>
       <c r="C64" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2708,17 +3023,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['hai', 'tidak', 'begitu', 'dong']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['wei', 'gt']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['wei', 'gt']</t>
+          <t>['hai']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['hai']</t>
         </is>
       </c>
     </row>
@@ -2727,10 +3047,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18903</v>
+        <v>33027</v>
       </c>
       <c r="C65" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2744,15 +3064,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['rt', 'matur', 'suwun', 'mas']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>['matur', 'suwun', 'mas']</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>['matur', 'suwun', 'mas']</t>
         </is>
@@ -2763,10 +3088,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18904</v>
+        <v>33028</v>
       </c>
       <c r="C66" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2780,17 +3105,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['pelajaran', 'sabar', 'pagi', 'ini', 'yaitu', 'lihat', 'mu', 'kalah', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['pelajaran', 'sabar', 'pagi', 'liat', 'mu', 'kalah']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['ajar', 'sabar', 'pagi', 'liat', 'mu', 'kalah']</t>
+          <t>['pelajaran', 'sabar', 'pagi', 'lihat', 'mu', 'kalah']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['ajar', 'sabar', 'pagi', 'lihat', 'mu', 'kalah']</t>
         </is>
       </c>
     </row>
@@ -2799,10 +3129,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18905</v>
+        <v>33029</v>
       </c>
       <c r="C67" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2816,17 +3146,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['rt', 'sinaga', 'cerita', 'anugerah', 'terindah', 'naga', 'amp', 'febi', 'bikin', 'andhika', 'menangis', 'stop', 'basa', 'via']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['sinaga', 'cerita', 'anugerah', 'terindah', 'naga', 'febi', 'andhika', 'nangis', 'stop', 'basa', 'via']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['sinaga', 'cerita', 'anugerah', 'indah', 'naga', 'febi', 'andhika', 'nang', 'stop', 'basa', 'via']</t>
+          <t>['sinaga', 'cerita', 'anugerah', 'terindah', 'naga', 'febi', 'andhika', 'menangis', 'stop', 'basa', 'via']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['sinaga', 'cerita', 'anugerah', 'indah', 'naga', 'febi', 'andhika', 'menang', 'stop', 'basa', 'via']</t>
         </is>
       </c>
     </row>
@@ -2835,10 +3170,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18906</v>
+        <v>33030</v>
       </c>
       <c r="C68" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2852,15 +3187,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['mu', 'oh', 'mu', 'perasaan', 'fansmu', 'habis', 'diangkat', 'eh', 'dibanting', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['mu', 'oh', 'mu', 'perasaan', 'fansmu', 'habis', 'diangkat', 'eh', 'dibanting']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['mu', 'oh', 'mu', 'asa', 'fansmu', 'habis', 'angkat', 'eh', 'banting']</t>
         </is>
@@ -2871,10 +3211,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18907</v>
+        <v>33031</v>
       </c>
       <c r="C69" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2888,17 +3228,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['orasudiro', 'sekalian', 'ah', 'bis', 'itu', 'ke', 'gue', 'ya', 'bang', 'tor']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['orasudiro', 'ah', 'bis', 'gw', 'bang', 'tor']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['orasudiro', 'ah', 'bis', 'gw', 'bang', 'tor']</t>
+          <t>['orasudiro', 'ah', 'bis', 'gue', 'bang', 'tor']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['orasudiro', 'ah', 'bis', 'gue', 'bang', 'tor']</t>
         </is>
       </c>
     </row>
@@ -2907,10 +3252,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18908</v>
+        <v>33032</v>
       </c>
       <c r="C70" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2924,15 +3269,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['gerrrrrrr']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['gerrrrrrr']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['gerrrrrrr']</t>
         </is>
@@ -2943,10 +3293,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18909</v>
+        <v>33033</v>
       </c>
       <c r="C71" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2960,15 +3310,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['adanya', 'apa', 'cing']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['cing']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['cing']</t>
         </is>
@@ -2979,10 +3334,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18910</v>
+        <v>33034</v>
       </c>
       <c r="C72" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2996,15 +3351,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['jaman', 'gerrr', 'berantakan']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['jaman', 'gerrr', 'berantakan']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['jaman', 'gerrr', 'beranta']</t>
         </is>
@@ -3015,10 +3375,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18911</v>
+        <v>33035</v>
       </c>
       <c r="C73" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3032,15 +3392,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['bagus', 'banget']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['bagus', 'banget']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['bagus', 'banget']</t>
         </is>
@@ -3051,10 +3416,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18912</v>
+        <v>33036</v>
       </c>
       <c r="C74" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3068,17 +3433,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['tak', 'enteniiiiiii', 'iya', 'sama']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['enteniiiiiii', 'yo', 'sam']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['enteniiiiiii', 'yo', 'sam']</t>
+          <t>['enteniiiiiii', 'iya']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['enteniiiiiii', 'iya']</t>
         </is>
       </c>
     </row>
@@ -3087,10 +3457,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18913</v>
+        <v>33037</v>
       </c>
       <c r="C75" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3104,15 +3474,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['rt', 'swag', 'bersama', 'andhika', 'pratama', 'klik']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['swag', 'andhika', 'pratama', 'klik']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['swag', 'andhika', 'pratama', 'klik']</t>
         </is>
@@ -3123,10 +3498,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18914</v>
+        <v>33038</v>
       </c>
       <c r="C76" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3140,15 +3515,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['susah', 'kenyang']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['susah', 'kenyang']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['susah', 'kenyang']</t>
         </is>
@@ -3159,10 +3539,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18915</v>
+        <v>33039</v>
       </c>
       <c r="C77" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3176,15 +3556,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['gasssss']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['gasssss']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>['gasssss']</t>
         </is>
@@ -3195,10 +3580,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18916</v>
+        <v>33040</v>
       </c>
       <c r="C78" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3212,17 +3597,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['wkwk', 'batagor', 'mu', 'kirim', 'sini']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['wkwkwkw', 'batagor', 'mu', 'kirim']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['wkwkwkw', 'batagor', 'mu', 'kirim']</t>
+          <t>['wkwk', 'batagor', 'mu', 'kirim']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['wkwk', 'batagor', 'mu', 'kirim']</t>
         </is>
       </c>
     </row>
@@ -3231,10 +3621,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18917</v>
+        <v>33041</v>
       </c>
       <c r="C79" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
@@ -3244,15 +3634,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3263,10 +3658,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18918</v>
+        <v>33042</v>
       </c>
       <c r="C80" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3280,17 +3675,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['sudah', 'lama', 'tidak', 'sebahagia', 'ini', 'lihat', 'mu', 'menang', 'ayo', 'bisa', 'yokkkk', 'ggmu']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['sebahagia', 'liat', 'mu', 'menang', 'yok', 'yokkkk', 'ggmu']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['bahagia', 'liat', 'mu', 'menang', 'yok', 'yokkkk', 'ggmu']</t>
+          <t>['sebahagia', 'lihat', 'mu', 'menang', 'ayo', 'yokkkk', 'ggmu']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['bahagia', 'lihat', 'mu', 'menang', 'ayo', 'yokkkk', 'ggmu']</t>
         </is>
       </c>
     </row>
@@ -3299,10 +3699,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18919</v>
+        <v>33043</v>
       </c>
       <c r="C81" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3316,17 +3716,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['gue', 'berterimakasih', 'bisa', 'merasakan', 'momen', 'halim', 'bulan', 'yang', 'legendaris']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['gw', 'berterimakasih', 'merasakan', 'momen', 'halim', 'legendaris']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['gw', 'berterimakasih', 'rasa', 'momen', 'halim', 'legendaris']</t>
+          <t>['gue', 'berterimakasih', 'merasakan', 'momen', 'halim', 'legendaris']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['gue', 'berterimakasih', 'rasa', 'momen', 'halim', 'legendaris']</t>
         </is>
       </c>
     </row>
@@ -3335,10 +3740,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18920</v>
+        <v>33044</v>
       </c>
       <c r="C82" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3352,15 +3757,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['ahayyyyyy']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['ahayyyyyy']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['ahayyyyyy']</t>
         </is>
@@ -3371,10 +3781,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18921</v>
+        <v>33045</v>
       </c>
       <c r="C83" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3388,17 +3798,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['rt', 'jafar', 'siapa', 'yang', 'hina', 'nabi', 'muhammad', 'saw', 'maka', 'yang', 'terhina', 'yang', 'menghina', 'seperti', 'juga', 'siapapun', 'yang', 'hina', 'yesus', 'maka', 'kehinaan', 'bagi', 'yang', 'men']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 24 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['jafar', 'hina', 'nabi', 'muhammad', 'saw', 'terhina', 'menghina', 'jg', 'hina', 'yesus', 'kehinaan', 'men']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['jafar', 'hina', 'nabi', 'muhammad', 'saw', 'hina', 'hina', 'jg', 'hina', 'yesus', 'hina', 'men']</t>
+          <t>['jafar', 'hina', 'nabi', 'muhammad', 'saw', 'terhina', 'menghina', 'hina', 'yesus', 'kehinaan', 'men']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['jafar', 'hina', 'nabi', 'muhammad', 'saw', 'hina', 'hina', 'hina', 'yesus', 'hina', 'men']</t>
         </is>
       </c>
     </row>
@@ -3407,10 +3822,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18922</v>
+        <v>33046</v>
       </c>
       <c r="C84" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3424,17 +3839,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['rt', 'ky', 'turut', 'berkontribusi', 'dalam', 'perunjingan', 'duniawi', 'yang', 'sedang', 'terjadi', 'sekalian', 'nya', 'aku', 'benarkan', 'sedikit', 'ya', 'kak', 'punten']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['ky', 'berkontribusi', 'perunjingan', 'duniawi', 'benerin', 'dikit', 'kak', 'punten']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['ky', 'kontribusi', 'perunjingan', 'duniawi', 'benerin', 'dikit', 'kak', 'punten']</t>
+          <t>['ky', 'berkontribusi', 'perunjingan', 'duniawi', 'benarkan', 'kak', 'punten']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['ky', 'kontribusi', 'perunjingan', 'duniawi', 'benar', 'kak', 'punten']</t>
         </is>
       </c>
     </row>
@@ -3443,10 +3863,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18923</v>
+        <v>33047</v>
       </c>
       <c r="C85" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3460,15 +3880,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['hauahahahahahaaha', 'bonita']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['hauahahahahahaaha', 'bonita']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['hauahahahahahaaha', 'bonita']</t>
         </is>
@@ -3479,10 +3904,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18924</v>
+        <v>33048</v>
       </c>
       <c r="C86" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
@@ -3492,15 +3917,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3511,10 +3941,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18925</v>
+        <v>33049</v>
       </c>
       <c r="C87" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3528,17 +3958,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['rt', 'pion', 'catur', 'melawan', 'pion', 'catur', 'yang', 'main', 'caturnya', 'adalah', 'tenang', 'tenang', 'saja', 'kalau', 'sudah', 'habis', 'semua', 'pionnya', 'tinggal', 'buka', 'papan', 'cat']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['pion', 'catur', 'ngelawan', 'pion', 'catur', 'maen', 'caturnya', 'mah', 'tenang', 'tenang', 'udah', 'habis', 'pionnya', 'tinggal', 'buka', 'papan', 'cat']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['pion', 'catur', 'ngelawan', 'pion', 'catur', 'maen', 'catur', 'mah', 'tenang', 'tenang', 'udah', 'habis', 'pion', 'tinggal', 'buka', 'papan', 'cat']</t>
+          <t>['pion', 'catur', 'melawan', 'pion', 'catur', 'main', 'caturnya', 'tenang', 'tenang', 'habis', 'pionnya', 'tinggal', 'buka', 'papan', 'cat']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['pion', 'catur', 'lawan', 'pion', 'catur', 'main', 'catur', 'tenang', 'tenang', 'habis', 'pion', 'tinggal', 'buka', 'papan', 'cat']</t>
         </is>
       </c>
     </row>
@@ -3547,10 +3982,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18926</v>
+        <v>33050</v>
       </c>
       <c r="C88" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3564,17 +3999,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'menurut', 'dokumenter', 'the', 'sosial', 'dilemma', 'algoritma', 'telah', 'memecah', 'kita', 'maka', 'bijaklah', 'di', 'media', 'sosial']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['dokumenter', 'the', 'social', 'dilemma', 'algoritma', 'memecah', 'bijaklah', 'media', 'sosial']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['dokumenter', 'the', 'social', 'dilemma', 'algoritma', 'pecah', 'bijak', 'media', 'sosial']</t>
+          <t>['dokumenter', 'the', 'sosial', 'dilemma', 'algoritma', 'memecah', 'bijaklah', 'media', 'sosial']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['dokumenter', 'the', 'sosial', 'dilemma', 'algoritma', 'pecah', 'bijak', 'media', 'sosial']</t>
         </is>
       </c>
     </row>
@@ -3583,10 +4023,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18927</v>
+        <v>33051</v>
       </c>
       <c r="C89" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3600,17 +4040,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['rt', 'mbul', 'biasanya', 'ada', 'saja', 'ini', 'teman', 'anjing', 'kayak', 'begini', 'lagi', 'seru', 'seru', 'cerita', 'horor', 'malah', 'ngagetin', 'tapi', 'niat', 'dia', 'baik', 'mencairkan', 'suasana']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['mbul', 'nii', 'temen', 'ajg', 'kaya', 'gini', 'seru', 'seru', 'cerita', 'horor', 'ngagetin', 'niat', 'mencairkan', 'suasana']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['mbul', 'nii', 'temen', 'ajg', 'kaya', 'gin', 'seru', 'seru', 'cerita', 'horor', 'ngagetin', 'niat', 'cair', 'suasana']</t>
+          <t>['mbul', 'teman', 'anjing', 'kayak', 'seru', 'seru', 'cerita', 'horor', 'ngagetin', 'niat', 'mencairkan', 'suasana']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['mbul', 'teman', 'anjing', 'kayak', 'seru', 'seru', 'cerita', 'horor', 'ngagetin', 'niat', 'cair', 'suasana']</t>
         </is>
       </c>
     </row>
@@ -3619,10 +4064,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18928</v>
+        <v>33052</v>
       </c>
       <c r="C90" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3636,17 +4081,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'orang', 'yang', 'melaporkan', 'tampaknya', 'belum', 'pernah', 'menonton', 'republik', 'mimpi']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['orang', 'melaporkan', 'blom', 'nonton', 'republik', 'mimpi']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['orang', 'lapor', 'blom', 'nonton', 'republik', 'mimpi']</t>
+          <t>['orang', 'melaporkan', 'menonton', 'republik', 'mimpi']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['orang', 'lapor', 'tonton', 'republik', 'mimpi']</t>
         </is>
       </c>
     </row>
@@ -3655,10 +4105,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18929</v>
+        <v>33053</v>
       </c>
       <c r="C91" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3672,15 +4122,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['rt', 'orang', 'miskin', 'tidak', 'boleh', 'sakit', 'karena', 'birokrasi', 'dipersulit', 'orang', 'pandai', 'tak', 'boleh', 'mengkritik', 'nanti', 'pencemaran', 'nama', 'ba']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['orang', 'miskin', 'sakit', 'birokrasi', 'dipersulit', 'orang', 'pandai', 'mengkritik', 'pencemaran', 'nama', 'ba']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['orang', 'miskin', 'sakit', 'birokrasi', 'sulit', 'orang', 'pandai', 'kritik', 'cemar', 'nama', 'ba']</t>
         </is>
@@ -3691,10 +4146,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18930</v>
+        <v>33054</v>
       </c>
       <c r="C92" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3708,17 +4163,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['rt', 'katanya', 'negeriku', 'kayak', 'raya', 'tapi', 'banyak', 'yang', 'teraniaya', 'katanya', 'sudah', 'tidak', 'dijajah', 'tapi', 'masih', 'banyak', 'orang', 'susah', 'kude']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['negeriku', 'kaya', 'raya', 'teraniaya', 'dijajah', 'orang', 'susah', 'kude']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['negeri', 'kaya', 'raya', 'aniaya', 'jajah', 'orang', 'susah', 'kude']</t>
+          <t>['negeriku', 'kayak', 'raya', 'teraniaya', 'dijajah', 'orang', 'susah', 'kude']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['negeri', 'kayak', 'raya', 'aniaya', 'jajah', 'orang', 'susah', 'kude']</t>
         </is>
       </c>
     </row>
@@ -3727,10 +4187,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18931</v>
+        <v>33055</v>
       </c>
       <c r="C93" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3744,17 +4204,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'mantan', 'ketua', 'senat', 'gue', 'buatkan', 'perbandingan', 'sebelum', 'after', 'undang, undang', 'ketenagakerjaan', 'biar', 'kita', 'melek', 'sebelum', 'menuntut', 'ini', 'itu', 'sama', 'human, resources, departement']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['mantan', 'ketua', 'senat', 'gue', 'bikinin', 'perbandingan', 'before', 'after', 'uu', 'ketenagakerjaan', 'melek', 'sblm', 'nuntut', 'sm', 'hrd']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['mantan', 'ketua', 'senat', 'gue', 'bikinin', 'banding', 'before', 'after', 'uu', 'ketenagakerjaan', 'melek', 'sblm', 'nuntut', 'sm', 'hrd']</t>
+          <t>['mantan', 'ketua', 'senat', 'gue', 'buatkan', 'perbandingan', 'after', 'undang, undang', 'ketenagakerjaan', 'melek', 'menuntut', 'human, resources, departement']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['mantan', 'ketua', 'senat', 'gue', 'buat', 'banding', 'after', 'undang undang', 'ketenagakerjaan', 'melek', 'tuntut', 'human resources departement']</t>
         </is>
       </c>
     </row>
@@ -3763,10 +4228,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18932</v>
+        <v>33056</v>
       </c>
       <c r="C94" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3780,15 +4245,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['rt', 'bagaimana', 'kalau', 'anak', 'sakit', 'bagaimana', 'obat', 'bagaimana', 'dokter', 'bagaimana', 'rumah', 'sakit', 'bagaimana', 'uang', 'bagaimana', 'gaji', 'bag']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['anak', 'sakit', 'obat', 'dokter', 'rumah', 'sakit', 'uang', 'gaji', 'bag']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['anak', 'sakit', 'obat', 'dokter', 'rumah', 'sakit', 'uang', 'gaji', 'bag']</t>
         </is>
@@ -3799,10 +4269,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18933</v>
+        <v>33057</v>
       </c>
       <c r="C95" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3816,15 +4286,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['rt', 'dear', 'pak']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['dear']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['dear']</t>
         </is>
@@ -3835,10 +4310,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18934</v>
+        <v>33058</v>
       </c>
       <c r="C96" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3852,17 +4327,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['rt', 'sekarang', 'gue', 'tau', 'kenapa', 'pablik', 'pigur', 'dituntut', 'memberi', 'contoh', 'baik', 'ke', 'masyarakat', 'karena', 'dari', 'awal', 'masyarakat', 'sudah', 'tau', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['gue', 'pablik', 'pigur', 'dituntut', 'ngasi', 'contoh', 'masyarakat', 'masyarakat']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['gue', 'pablik', 'pigur', 'tuntut', 'ngasi', 'contoh', 'masyarakat', 'masyarakat']</t>
+          <t>['gue', 'pablik', 'pigur', 'dituntut', 'contoh', 'masyarakat', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['gue', 'pablik', 'pigur', 'tuntut', 'contoh', 'masyarakat', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -3871,10 +4351,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18935</v>
+        <v>33059</v>
       </c>
       <c r="C97" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3888,15 +4368,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'apalah', 'kita', 'ini', 'bagi', 'para', 'pemimpin', 'nan', 'mulia', 'selain', 'deretan', 'angka', 'angka', 'korban', 'pandemi', 'angka', 'pengangguran', 'angka', 'pemi']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['apalah', 'pemimpin', 'mulia', 'deretan', 'angka', 'angka', 'korban', 'pandemi', 'angka', 'pengangguran', 'angka', 'pemi']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['apa', 'pimpin', 'mulia', 'deret', 'angka', 'angka', 'korban', 'pandemi', 'angka', 'anggur', 'angka', 'mi']</t>
         </is>
@@ -3907,10 +4392,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18936</v>
+        <v>33060</v>
       </c>
       <c r="C98" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3924,17 +4409,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'memang', 'tidak', 'semua', 'pejabat', 'jago', 'berbicara', 'amp', 'senang', 'jadi', 'narasumber', 'talkshow', 'tapi', 'minimal', 'kalau', 'tidak', 'jago', 'berbicara', 'harus', 'jago']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['pejabat', 'jago', 'ngomong', 'senang', 'narasumber', 'talkshow', 'minimal', 'jago', 'ngomong', 'jago']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['jabat', 'jago', 'ngomong', 'senang', 'narasumber', 'talkshow', 'minimal', 'jago', 'ngomong', 'jago']</t>
+          <t>['pejabat', 'jago', 'berbicara', 'senang', 'narasumber', 'talkshow', 'minimal', 'jago', 'berbicara', 'jago']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['jabat', 'jago', 'bicara', 'senang', 'narasumber', 'talkshow', 'minimal', 'jago', 'bicara', 'jago']</t>
         </is>
       </c>
     </row>
@@ -3943,10 +4433,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18937</v>
+        <v>33061</v>
       </c>
       <c r="C99" t="n">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3960,15 +4450,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['rt', 'prasetya', 'najwa', 'shihab', 'mewawancarai', 'kursi', 'kosong', 'yang', 'mestinya', 'diduduki', 'terawan', 'adalah', 'salah', 'satu', 'momen', 'terbaik', 'dalam', 'jurnalisme']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>['prasetya', 'najwa', 'shihab', 'mewawancarai', 'kursi', 'kosong', 'mestinya', 'diduduki', 'terawan', 'salah', 'momen', 'terbaik', 'jurnalisme']</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>['prasetya', 'najwa', 'shihab', 'wawancara', 'kursi', 'kosong', 'mesti', 'duduk', 'awan', 'salah', 'momen', 'baik', 'jurnalisme']</t>
         </is>
